--- a/scripts.xlsx
+++ b/scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Code\FedProC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60FC65-0EFD-40BC-9F12-AF7F654E9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B98949-40CA-4E34-A9B3-85182F405099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4676614C-C8DD-4D38-BD66-2E739B6203C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="23">
   <si>
     <t>MSE</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>RLinear</t>
+  </si>
+  <si>
+    <t>BejingAirQuality</t>
+  </si>
+  <si>
+    <t>ETDatasetMinute</t>
+  </si>
+  <si>
+    <t>CryptoDataDownloadDay</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8F8CC3-6A9E-45FD-B534-488B8E56A491}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,49 +1367,2472 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K23" s="1"/>
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A42" si="10">CONCATENATE(B23, "_", C23, "_", D23, "_", J23, "_", I23)</f>
+        <v>ETDatasetMinute_96_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <v>96</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23:L42" si="11">CONCATENATE("python main.py ", $B$1, B23, " ", $C$1, C23, " ", $D$1, D23, " ", $E$1, E23, " ", $F$1, F23, " ", $G$1, G23, " ", $H$1, H23, " ", $I$1, I23, " ", $J$1, J23, " ", K23, " ", $A$1, A23)</f>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K24" s="1"/>
+      <c r="A24" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_192_LocalOnly_RLinear</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>96</v>
+      </c>
+      <c r="D24">
+        <v>192</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_192_LocalOnly_RLinear</v>
+      </c>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K25" s="1"/>
+      <c r="A25" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_336_LocalOnly_RLinear</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>96</v>
+      </c>
+      <c r="D25">
+        <v>336</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_336_LocalOnly_RLinear</v>
+      </c>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_720_LocalOnly_RLinear</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <v>720</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_720_LocalOnly_RLinear</v>
+      </c>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K27" s="1"/>
+      <c r="A27" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_96_Centralized_RLinear</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>96</v>
+      </c>
+      <c r="D27">
+        <v>96</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_96_Centralized_RLinear</v>
+      </c>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K28" s="1"/>
+      <c r="A28" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_192_Centralized_RLinear</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>96</v>
+      </c>
+      <c r="D28">
+        <v>192</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_192_Centralized_RLinear</v>
+      </c>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K29" s="1"/>
+      <c r="A29" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_336_Centralized_RLinear</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>336</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_336_Centralized_RLinear</v>
+      </c>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K30" s="1"/>
+      <c r="A30" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_720_Centralized_RLinear</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>720</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_720_Centralized_RLinear</v>
+      </c>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_96_FedAvg_RLinear</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>96</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_96_FedAvg_RLinear</v>
+      </c>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="1"/>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="1"/>
+      <c r="A32" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_192_FedAvg_RLinear</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>192</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_192_FedAvg_RLinear</v>
+      </c>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_336_FedAvg_RLinear</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>336</v>
+      </c>
+      <c r="E33">
+        <v>1000</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_336_FedAvg_RLinear</v>
+      </c>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_720_FedAvg_RLinear</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <v>720</v>
+      </c>
+      <c r="E34">
+        <v>1000</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_720_FedAvg_RLinear</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_96_FedProx_RLinear</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>96</v>
+      </c>
+      <c r="D35">
+        <v>96</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_96_FedProx_RLinear</v>
+      </c>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_192_FedProx_RLinear</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>96</v>
+      </c>
+      <c r="D36">
+        <v>192</v>
+      </c>
+      <c r="E36">
+        <v>1000</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_192_FedProx_RLinear</v>
+      </c>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_336_FedProx_RLinear</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>96</v>
+      </c>
+      <c r="D37">
+        <v>336</v>
+      </c>
+      <c r="E37">
+        <v>1000</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_336_FedProx_RLinear</v>
+      </c>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_720_FedProx_RLinear</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>96</v>
+      </c>
+      <c r="D38">
+        <v>720</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_720_FedProx_RLinear</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_96_FedRevIN_RLinear</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>96</v>
+      </c>
+      <c r="E39">
+        <v>1000</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_96_FedRevIN_RLinear</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_192_FedRevIN_RLinear</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>96</v>
+      </c>
+      <c r="D40">
+        <v>192</v>
+      </c>
+      <c r="E40">
+        <v>1000</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_192_FedRevIN_RLinear</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_336_FedRevIN_RLinear</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>336</v>
+      </c>
+      <c r="E41">
+        <v>1000</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_336_FedRevIN_RLinear</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="10"/>
+        <v>ETDatasetMinute_96_720_FedRevIN_RLinear</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>720</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="11"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_720_FedRevIN_RLinear</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" ref="A44:A63" si="12">CONCATENATE(B44, "_", C44, "_", D44, "_", J44, "_", I44)</f>
+        <v>CryptoDataDownloadDay_96_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>96</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+      <c r="E44">
+        <v>1000</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" ref="L44:L63" si="13">CONCATENATE("python main.py ", $B$1, B44, " ", $C$1, C44, " ", $D$1, D44, " ", $E$1, E44, " ", $F$1, F44, " ", $G$1, G44, " ", $H$1, H44, " ", $I$1, I44, " ", $J$1, J44, " ", K44, " ", $A$1, A44)</f>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_192_LocalOnly_RLinear</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>96</v>
+      </c>
+      <c r="D45">
+        <v>192</v>
+      </c>
+      <c r="E45">
+        <v>1000</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_192_LocalOnly_RLinear</v>
+      </c>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_336_LocalOnly_RLinear</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>96</v>
+      </c>
+      <c r="D46">
+        <v>336</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_336_LocalOnly_RLinear</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_720_LocalOnly_RLinear</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>720</v>
+      </c>
+      <c r="E47">
+        <v>1000</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_720_LocalOnly_RLinear</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_96_Centralized_RLinear</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>96</v>
+      </c>
+      <c r="E48">
+        <v>1000</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_96_Centralized_RLinear</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_192_Centralized_RLinear</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>96</v>
+      </c>
+      <c r="D49">
+        <v>192</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_192_Centralized_RLinear</v>
+      </c>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_336_Centralized_RLinear</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>96</v>
+      </c>
+      <c r="D50">
+        <v>336</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_336_Centralized_RLinear</v>
+      </c>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_720_Centralized_RLinear</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>96</v>
+      </c>
+      <c r="D51">
+        <v>720</v>
+      </c>
+      <c r="E51">
+        <v>1000</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_720_Centralized_RLinear</v>
+      </c>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_96_FedAvg_RLinear</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <v>96</v>
+      </c>
+      <c r="E52">
+        <v>1000</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_96_FedAvg_RLinear</v>
+      </c>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_192_FedAvg_RLinear</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>192</v>
+      </c>
+      <c r="E53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_192_FedAvg_RLinear</v>
+      </c>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_336_FedAvg_RLinear</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>96</v>
+      </c>
+      <c r="D54">
+        <v>336</v>
+      </c>
+      <c r="E54">
+        <v>1000</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_336_FedAvg_RLinear</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_720_FedAvg_RLinear</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>720</v>
+      </c>
+      <c r="E55">
+        <v>1000</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_720_FedAvg_RLinear</v>
+      </c>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_96_FedProx_RLinear</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56">
+        <v>96</v>
+      </c>
+      <c r="D56">
+        <v>96</v>
+      </c>
+      <c r="E56">
+        <v>1000</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_96_FedProx_RLinear</v>
+      </c>
+      <c r="N56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_192_FedProx_RLinear</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>96</v>
+      </c>
+      <c r="D57">
+        <v>192</v>
+      </c>
+      <c r="E57">
+        <v>1000</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_192_FedProx_RLinear</v>
+      </c>
+      <c r="N57" s="2"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_336_FedProx_RLinear</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>336</v>
+      </c>
+      <c r="E58">
+        <v>1000</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_336_FedProx_RLinear</v>
+      </c>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_720_FedProx_RLinear</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59">
+        <v>96</v>
+      </c>
+      <c r="D59">
+        <v>720</v>
+      </c>
+      <c r="E59">
+        <v>1000</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_720_FedProx_RLinear</v>
+      </c>
+      <c r="N59" s="2"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_96_FedRevIN_RLinear</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>96</v>
+      </c>
+      <c r="D60">
+        <v>96</v>
+      </c>
+      <c r="E60">
+        <v>1000</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_96_FedRevIN_RLinear</v>
+      </c>
+      <c r="N60" s="2"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_192_FedRevIN_RLinear</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61">
+        <v>96</v>
+      </c>
+      <c r="D61">
+        <v>192</v>
+      </c>
+      <c r="E61">
+        <v>1000</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_192_FedRevIN_RLinear</v>
+      </c>
+      <c r="N61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_336_FedRevIN_RLinear</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>336</v>
+      </c>
+      <c r="E62">
+        <v>1000</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_336_FedRevIN_RLinear</v>
+      </c>
+      <c r="N62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="12"/>
+        <v>CryptoDataDownloadDay_96_720_FedRevIN_RLinear</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>96</v>
+      </c>
+      <c r="D63">
+        <v>720</v>
+      </c>
+      <c r="E63">
+        <v>1000</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_720_FedRevIN_RLinear</v>
+      </c>
+      <c r="N63" s="2"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+      <c r="N64" s="2"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" ref="A65:A68" si="14">CONCATENATE(B65, "_", C65, "_", D65, "_", J65, "_", I65)</f>
+        <v>BejingAirQuality_24_24_LocalOnly_RLinear</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>24</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>1000</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" ref="L65:L68" si="15">CONCATENATE("python main.py ", $B$1, B65, " ", $C$1, C65, " ", $D$1, D65, " ", $E$1, E65, " ", $F$1, F65, " ", $G$1, G65, " ", $H$1, H65, " ", $I$1, I65, " ", $J$1, J65, " ", K65, " ", $A$1, A65)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_24_LocalOnly_RLinear</v>
+      </c>
+      <c r="N65" s="2"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="14"/>
+        <v>BejingAirQuality_24_48_LocalOnly_RLinear</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>1000</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_48_LocalOnly_RLinear</v>
+      </c>
+      <c r="N66" s="2"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="14"/>
+        <v>BejingAirQuality_24_72_LocalOnly_RLinear</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>72</v>
+      </c>
+      <c r="E67">
+        <v>1000</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_72_LocalOnly_RLinear</v>
+      </c>
+      <c r="N67" s="2"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="14"/>
+        <v>BejingAirQuality_24_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>96</v>
+      </c>
+      <c r="E68">
+        <v>1000</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="N68" s="2"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" ref="A69:A72" si="16">CONCATENATE(B69, "_", C69, "_", D69, "_", J69, "_", I69)</f>
+        <v>BejingAirQuality_24_24_Centralized_RLinear</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>24</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>1000</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" ref="L69:L72" si="17">CONCATENATE("python main.py ", $B$1, B69, " ", $C$1, C69, " ", $D$1, D69, " ", $E$1, E69, " ", $F$1, F69, " ", $G$1, G69, " ", $H$1, H69, " ", $I$1, I69, " ", $J$1, J69, " ", K69, " ", $A$1, A69)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_24_Centralized_RLinear</v>
+      </c>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="16"/>
+        <v>BejingAirQuality_24_48_Centralized_RLinear</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>48</v>
+      </c>
+      <c r="E70">
+        <v>1000</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="17"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_48_Centralized_RLinear</v>
+      </c>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="16"/>
+        <v>BejingAirQuality_24_72_Centralized_RLinear</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71">
+        <v>72</v>
+      </c>
+      <c r="E71">
+        <v>1000</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="17"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_72_Centralized_RLinear</v>
+      </c>
+      <c r="N71" s="2"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="16"/>
+        <v>BejingAirQuality_24_96_Centralized_RLinear</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>24</v>
+      </c>
+      <c r="D72">
+        <v>96</v>
+      </c>
+      <c r="E72">
+        <v>1000</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="17"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_96_Centralized_RLinear</v>
+      </c>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" ref="A73:A80" si="18">CONCATENATE(B73, "_", C73, "_", D73, "_", J73, "_", I73)</f>
+        <v>BejingAirQuality_24_24_FedAvg_RLinear</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>1000</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" ref="L73:L80" si="19">CONCATENATE("python main.py ", $B$1, B73, " ", $C$1, C73, " ", $D$1, D73, " ", $E$1, E73, " ", $F$1, F73, " ", $G$1, G73, " ", $H$1, H73, " ", $I$1, I73, " ", $J$1, J73, " ", K73, " ", $A$1, A73)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_24_FedAvg_RLinear</v>
+      </c>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_48_FedAvg_RLinear</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>48</v>
+      </c>
+      <c r="E74">
+        <v>1000</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_48_FedAvg_RLinear</v>
+      </c>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_72_FedAvg_RLinear</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>72</v>
+      </c>
+      <c r="E75">
+        <v>1000</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_72_FedAvg_RLinear</v>
+      </c>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_96_FedAvg_RLinear</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>96</v>
+      </c>
+      <c r="E76">
+        <v>1000</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_96_FedAvg_RLinear</v>
+      </c>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_24_FedProx_RLinear</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
+      </c>
+      <c r="E77">
+        <v>1000</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_24_FedProx_RLinear</v>
+      </c>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_48_FedProx_RLinear</v>
+      </c>
+      <c r="B78" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>48</v>
+      </c>
+      <c r="E78">
+        <v>1000</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_48_FedProx_RLinear</v>
+      </c>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_72_FedProx_RLinear</v>
+      </c>
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>24</v>
+      </c>
+      <c r="D79">
+        <v>72</v>
+      </c>
+      <c r="E79">
+        <v>1000</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_72_FedProx_RLinear</v>
+      </c>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_96_FedProx_RLinear</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>24</v>
+      </c>
+      <c r="D80">
+        <v>96</v>
+      </c>
+      <c r="E80">
+        <v>1000</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_96_FedProx_RLinear</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" ref="A81:A84" si="20">CONCATENATE(B81, "_", C81, "_", D81, "_", J81, "_", I81)</f>
+        <v>BejingAirQuality_24_24_FedRevIN_RLinear</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>24</v>
+      </c>
+      <c r="E81">
+        <v>1000</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" ref="L81:L84" si="21">CONCATENATE("python main.py ", $B$1, B81, " ", $C$1, C81, " ", $D$1, D81, " ", $E$1, E81, " ", $F$1, F81, " ", $G$1, G81, " ", $H$1, H81, " ", $I$1, I81, " ", $J$1, J81, " ", K81, " ", $A$1, A81)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_24_FedRevIN_RLinear</v>
+      </c>
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_48_FedRevIN_RLinear</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>24</v>
+      </c>
+      <c r="D82">
+        <v>48</v>
+      </c>
+      <c r="E82">
+        <v>1000</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_48_FedRevIN_RLinear</v>
+      </c>
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_72_FedRevIN_RLinear</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83">
+        <v>24</v>
+      </c>
+      <c r="D83">
+        <v>72</v>
+      </c>
+      <c r="E83">
+        <v>1000</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_72_FedRevIN_RLinear</v>
+      </c>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_96_FedRevIN_RLinear</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>96</v>
+      </c>
+      <c r="E84">
+        <v>1000</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_96_FedRevIN_RLinear</v>
+      </c>
+      <c r="N84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts.xlsx
+++ b/scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Code\FedProC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B98949-40CA-4E34-A9B3-85182F405099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6338E4C9-ED0E-4335-A7A5-692BC7A852E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4676614C-C8DD-4D38-BD66-2E739B6203C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="24">
   <si>
     <t>MSE</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>CryptoDataDownloadDay</t>
+  </si>
+  <si>
+    <t>script</t>
   </si>
 </sst>
 </file>
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8F8CC3-6A9E-45FD-B534-488B8E56A491}">
   <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +543,9 @@
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>

--- a/scripts.xlsx
+++ b/scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Code\FedProC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6338E4C9-ED0E-4335-A7A5-692BC7A852E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD28AA-6196-49F7-85DB-F51CF1BB9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4676614C-C8DD-4D38-BD66-2E739B6203C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="26">
   <si>
     <t>MSE</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>script</t>
+  </si>
+  <si>
+    <t>FedALA</t>
+  </si>
+  <si>
+    <t>FedCAC</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8F8CC3-6A9E-45FD-B534-488B8E56A491}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +570,7 @@
         <v>96</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -586,7 +592,7 @@
       </c>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L5" si="1">CONCATENATE("python main.py ", $B$1, B2, " ", $C$1, C2, " ", $D$1, D2, " ", $E$1, E2, " ", $F$1, F2, " ", $G$1, G2, " ", $H$1, H2, " ", $I$1, I2, " ", $J$1, J2, " ", K2, " ", $A$1, A2)</f>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_96_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_96_LocalOnly_RLinear</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -605,7 +611,7 @@
         <v>192</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -627,7 +633,7 @@
       </c>
       <c r="L3" t="str">
         <f t="shared" si="1"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_192_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_192_LocalOnly_RLinear</v>
       </c>
       <c r="N3" s="2"/>
     </row>
@@ -646,7 +652,7 @@
         <v>336</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -668,7 +674,7 @@
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_336_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_336_LocalOnly_RLinear</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -687,7 +693,7 @@
         <v>720</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -709,7 +715,7 @@
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_720_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetHour_96_720_LocalOnly_RLinear</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -728,7 +734,7 @@
         <v>96</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -750,7 +756,7 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" ref="L6:L9" si="3">CONCATENATE("python main.py ", $B$1, B6, " ", $C$1, C6, " ", $D$1, D6, " ", $E$1, E6, " ", $F$1, F6, " ", $G$1, G6, " ", $H$1, H6, " ", $I$1, I6, " ", $J$1, J6, " ", K6, " ", $A$1, A6)</f>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_96_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_96_Centralized_RLinear</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -769,7 +775,7 @@
         <v>192</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -791,7 +797,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="3"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_192_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_192_Centralized_RLinear</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -810,7 +816,7 @@
         <v>336</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -832,7 +838,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="3"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_336_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_336_Centralized_RLinear</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -851,7 +857,7 @@
         <v>720</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -873,7 +879,7 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="3"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_720_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetHour_96_720_Centralized_RLinear</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -892,7 +898,7 @@
         <v>96</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -914,7 +920,7 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L13" si="5">CONCATENATE("python main.py ", $B$1, B10, " ", $C$1, C10, " ", $D$1, D10, " ", $E$1, E10, " ", $F$1, F10, " ", $G$1, G10, " ", $H$1, H10, " ", $I$1, I10, " ", $J$1, J10, " ", K10, " ", $A$1, A10)</f>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_96_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_96_FedAvg_RLinear</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -933,7 +939,7 @@
         <v>192</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -955,7 +961,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_192_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_192_FedAvg_RLinear</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -974,7 +980,7 @@
         <v>336</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -996,7 +1002,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_336_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_336_FedAvg_RLinear</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -1015,7 +1021,7 @@
         <v>720</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1037,7 +1043,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_720_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetHour_96_720_FedAvg_RLinear</v>
       </c>
       <c r="N13" s="2"/>
     </row>
@@ -1056,7 +1062,7 @@
         <v>96</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1078,7 +1084,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L17" si="7">CONCATENATE("python main.py ", $B$1, B14, " ", $C$1, C14, " ", $D$1, D14, " ", $E$1, E14, " ", $F$1, F14, " ", $G$1, G14, " ", $H$1, H14, " ", $I$1, I14, " ", $J$1, J14, " ", K14, " ", $A$1, A14)</f>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_96_FedProx_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_96_FedProx_RLinear</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -1097,7 +1103,7 @@
         <v>192</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1119,7 +1125,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="7"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_192_FedProx_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_192_FedProx_RLinear</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -1138,7 +1144,7 @@
         <v>336</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1160,7 +1166,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="7"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_336_FedProx_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_336_FedProx_RLinear</v>
       </c>
       <c r="N16" s="2"/>
     </row>
@@ -1179,7 +1185,7 @@
         <v>720</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1201,13 +1207,13 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="7"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_720_FedProx_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetHour_96_720_FedProx_RLinear</v>
       </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" ref="A18:A21" si="8">CONCATENATE(B18, "_", C18, "_", D18, "_", J18, "_", I18)</f>
+        <f t="shared" ref="A18:A25" si="8">CONCATENATE(B18, "_", C18, "_", D18, "_", J18, "_", I18)</f>
         <v>ETDatasetHour_96_96_FedRevIN_RLinear</v>
       </c>
       <c r="B18" t="s">
@@ -1220,7 +1226,7 @@
         <v>96</v>
       </c>
       <c r="E18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1241,8 +1247,8 @@
         <v>2</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L21" si="9">CONCATENATE("python main.py ", $B$1, B18, " ", $C$1, C18, " ", $D$1, D18, " ", $E$1, E18, " ", $F$1, F18, " ", $G$1, G18, " ", $H$1, H18, " ", $I$1, I18, " ", $J$1, J18, " ", K18, " ", $A$1, A18)</f>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_96_FedRevIN_RLinear</v>
+        <f t="shared" ref="L18:L25" si="9">CONCATENATE("python main.py ", $B$1, B18, " ", $C$1, C18, " ", $D$1, D18, " ", $E$1, E18, " ", $F$1, F18, " ", $G$1, G18, " ", $H$1, H18, " ", $I$1, I18, " ", $J$1, J18, " ", K18, " ", $A$1, A18)</f>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_96_FedRevIN_RLinear</v>
       </c>
       <c r="N18" s="2"/>
     </row>
@@ -1261,7 +1267,7 @@
         <v>192</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1283,7 +1289,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="9"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_192_FedRevIN_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_192_FedRevIN_RLinear</v>
       </c>
       <c r="N19" s="2"/>
     </row>
@@ -1302,7 +1308,7 @@
         <v>336</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1324,7 +1330,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="9"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_336_FedRevIN_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_336_FedRevIN_RLinear</v>
       </c>
       <c r="N20" s="2"/>
     </row>
@@ -1343,7 +1349,7 @@
         <v>720</v>
       </c>
       <c r="E21">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1365,29 +1371,67 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="9"/>
-        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_720_FedRevIN_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetHour_96_720_FedRevIN_RLinear</v>
       </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K22" s="1"/>
+      <c r="A22" t="str">
+        <f t="shared" si="8"/>
+        <v>ETDatasetHour_96_96_FedALA_RLinear</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="9"/>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetHour_96_96_FedALA_RLinear</v>
+      </c>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" ref="A23:A42" si="10">CONCATENATE(B23, "_", C23, "_", D23, "_", J23, "_", I23)</f>
-        <v>ETDatasetMinute_96_96_LocalOnly_RLinear</v>
+        <f t="shared" si="8"/>
+        <v>ETDatasetHour_96_192_FedALA_RLinear</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>96</v>
       </c>
       <c r="D23">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1402,33 +1446,33 @@
         <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" ref="L23:L42" si="11">CONCATENATE("python main.py ", $B$1, B23, " ", $C$1, C23, " ", $D$1, D23, " ", $E$1, E23, " ", $F$1, F23, " ", $G$1, G23, " ", $H$1, H23, " ", $I$1, I23, " ", $J$1, J23, " ", K23, " ", $A$1, A23)</f>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_96_LocalOnly_RLinear</v>
+        <f t="shared" si="9"/>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetHour_96_192_FedALA_RLinear</v>
       </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_192_LocalOnly_RLinear</v>
+        <f t="shared" si="8"/>
+        <v>ETDatasetHour_96_336_FedALA_RLinear</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>96</v>
       </c>
       <c r="D24">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="E24">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1443,33 +1487,33 @@
         <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_192_LocalOnly_RLinear</v>
+        <f t="shared" si="9"/>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetHour_96_336_FedALA_RLinear</v>
       </c>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_336_LocalOnly_RLinear</v>
+        <f t="shared" si="8"/>
+        <v>ETDatasetHour_96_720_FedALA_RLinear</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>96</v>
       </c>
       <c r="D25">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1484,33 +1528,33 @@
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_336_LocalOnly_RLinear</v>
+        <f t="shared" si="9"/>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetHour_96_720_FedALA_RLinear</v>
       </c>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_720_LocalOnly_RLinear</v>
+        <f t="shared" ref="A26:A29" si="10">CONCATENATE(B26, "_", C26, "_", D26, "_", J26, "_", I26)</f>
+        <v>ETDatasetHour_96_96_FedCAC_RLinear</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>96</v>
       </c>
       <c r="D26">
-        <v>720</v>
+        <v>96</v>
       </c>
       <c r="E26">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1525,33 +1569,33 @@
         <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_720_LocalOnly_RLinear</v>
+        <f t="shared" ref="L26:L29" si="11">CONCATENATE("python main.py ", $B$1, B26, " ", $C$1, C26, " ", $D$1, D26, " ", $E$1, E26, " ", $F$1, F26, " ", $G$1, G26, " ", $H$1, H26, " ", $I$1, I26, " ", $J$1, J26, " ", K26, " ", $A$1, A26)</f>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetHour_96_96_FedCAC_RLinear</v>
       </c>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_96_Centralized_RLinear</v>
+        <v>ETDatasetHour_96_192_FedCAC_RLinear</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>96</v>
       </c>
       <c r="D27">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="E27">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1566,33 +1610,33 @@
         <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_96_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetHour_96_192_FedCAC_RLinear</v>
       </c>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_192_Centralized_RLinear</v>
+        <v>ETDatasetHour_96_336_FedCAC_RLinear</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>96</v>
       </c>
       <c r="D28">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="E28">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1607,33 +1651,33 @@
         <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_192_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetHour_96_336_FedCAC_RLinear</v>
       </c>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_336_Centralized_RLinear</v>
+        <v>ETDatasetHour_96_720_FedCAC_RLinear</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>96</v>
       </c>
       <c r="D29">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="E29">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1648,62 +1692,24 @@
         <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_336_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetHour --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetHour_96_720_FedCAC_RLinear</v>
       </c>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_720_Centralized_RLinear</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30">
-        <v>96</v>
-      </c>
-      <c r="D30">
-        <v>720</v>
-      </c>
-      <c r="E30">
-        <v>1000</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_720_Centralized_RLinear</v>
-      </c>
-      <c r="N30" s="2"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_96_FedAvg_RLinear</v>
+        <f t="shared" ref="A31:A58" si="12">CONCATENATE(B31, "_", C31, "_", D31, "_", J31, "_", I31)</f>
+        <v>ETDatasetMinute_96_96_LocalOnly_RLinear</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -1715,7 +1721,7 @@
         <v>96</v>
       </c>
       <c r="E31">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1730,21 +1736,21 @@
         <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_96_FedAvg_RLinear</v>
+        <f t="shared" ref="L31:L58" si="13">CONCATENATE("python main.py ", $B$1, B31, " ", $C$1, C31, " ", $D$1, D31, " ", $E$1, E31, " ", $F$1, F31, " ", $G$1, G31, " ", $H$1, H31, " ", $I$1, I31, " ", $J$1, J31, " ", K31, " ", $A$1, A31)</f>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_96_LocalOnly_RLinear</v>
       </c>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_192_FedAvg_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_192_LocalOnly_RLinear</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
@@ -1756,7 +1762,7 @@
         <v>192</v>
       </c>
       <c r="E32">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1771,21 +1777,21 @@
         <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_192_FedAvg_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_192_LocalOnly_RLinear</v>
       </c>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_336_FedAvg_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_336_LocalOnly_RLinear</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
@@ -1797,7 +1803,7 @@
         <v>336</v>
       </c>
       <c r="E33">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1812,21 +1818,21 @@
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_336_FedAvg_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_336_LocalOnly_RLinear</v>
       </c>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_720_FedAvg_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_720_LocalOnly_RLinear</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -1838,7 +1844,7 @@
         <v>720</v>
       </c>
       <c r="E34">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1853,21 +1859,21 @@
         <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_720_FedAvg_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=ETDatasetMinute_96_720_LocalOnly_RLinear</v>
       </c>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_96_FedProx_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_96_Centralized_RLinear</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -1879,7 +1885,7 @@
         <v>96</v>
       </c>
       <c r="E35">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1894,21 +1900,21 @@
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_96_FedProx_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_96_Centralized_RLinear</v>
       </c>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_192_FedProx_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_192_Centralized_RLinear</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -1920,7 +1926,7 @@
         <v>192</v>
       </c>
       <c r="E36">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1935,21 +1941,21 @@
         <v>19</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_192_FedProx_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_192_Centralized_RLinear</v>
       </c>
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_336_FedProx_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_336_Centralized_RLinear</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -1961,7 +1967,7 @@
         <v>336</v>
       </c>
       <c r="E37">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1976,21 +1982,21 @@
         <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_336_FedProx_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_336_Centralized_RLinear</v>
       </c>
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_720_FedProx_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_720_Centralized_RLinear</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
@@ -2002,7 +2008,7 @@
         <v>720</v>
       </c>
       <c r="E38">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2017,21 +2023,21 @@
         <v>19</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_720_FedProx_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=ETDatasetMinute_96_720_Centralized_RLinear</v>
       </c>
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_96_FedRevIN_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_96_FedAvg_RLinear</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
@@ -2043,7 +2049,7 @@
         <v>96</v>
       </c>
       <c r="E39">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2058,21 +2064,21 @@
         <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_96_FedRevIN_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_96_FedAvg_RLinear</v>
       </c>
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_192_FedRevIN_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_192_FedAvg_RLinear</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -2084,7 +2090,7 @@
         <v>192</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2099,21 +2105,21 @@
         <v>19</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_192_FedRevIN_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_192_FedAvg_RLinear</v>
       </c>
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_336_FedRevIN_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_336_FedAvg_RLinear</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -2125,7 +2131,7 @@
         <v>336</v>
       </c>
       <c r="E41">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2140,21 +2146,21 @@
         <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_336_FedRevIN_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_336_FedAvg_RLinear</v>
       </c>
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f t="shared" si="10"/>
-        <v>ETDatasetMinute_96_720_FedRevIN_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_720_FedAvg_RLinear</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -2166,7 +2172,7 @@
         <v>720</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2181,37 +2187,74 @@
         <v>19</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="11"/>
-        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_720_FedRevIN_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=ETDatasetMinute_96_720_FedAvg_RLinear</v>
       </c>
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K43" s="1"/>
+      <c r="A43" t="str">
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_96_FedProx_RLinear</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>96</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_96_FedProx_RLinear</v>
+      </c>
       <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f t="shared" ref="A44:A63" si="12">CONCATENATE(B44, "_", C44, "_", D44, "_", J44, "_", I44)</f>
-        <v>CryptoDataDownloadDay_96_96_LocalOnly_RLinear</v>
+        <f t="shared" si="12"/>
+        <v>ETDatasetMinute_96_192_FedProx_RLinear</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>96</v>
       </c>
       <c r="D44">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="E44">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2226,33 +2269,33 @@
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44:L63" si="13">CONCATENATE("python main.py ", $B$1, B44, " ", $C$1, C44, " ", $D$1, D44, " ", $E$1, E44, " ", $F$1, F44, " ", $G$1, G44, " ", $H$1, H44, " ", $I$1, I44, " ", $J$1, J44, " ", K44, " ", $A$1, A44)</f>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_96_LocalOnly_RLinear</v>
+        <f t="shared" si="13"/>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_192_FedProx_RLinear</v>
       </c>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_192_LocalOnly_RLinear</v>
+        <v>ETDatasetMinute_96_336_FedProx_RLinear</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>96</v>
       </c>
       <c r="D45">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="E45">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2267,33 +2310,33 @@
         <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_192_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_336_FedProx_RLinear</v>
       </c>
       <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_336_LocalOnly_RLinear</v>
+        <v>ETDatasetMinute_96_720_FedProx_RLinear</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>96</v>
       </c>
       <c r="D46">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2308,33 +2351,33 @@
         <v>19</v>
       </c>
       <c r="J46" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_336_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=ETDatasetMinute_96_720_FedProx_RLinear</v>
       </c>
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_720_LocalOnly_RLinear</v>
+        <v>ETDatasetMinute_96_96_FedRevIN_RLinear</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>96</v>
       </c>
       <c r="D47">
-        <v>720</v>
+        <v>96</v>
       </c>
       <c r="E47">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2349,33 +2392,33 @@
         <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_720_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_96_FedRevIN_RLinear</v>
       </c>
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_96_Centralized_RLinear</v>
+        <v>ETDatasetMinute_96_192_FedRevIN_RLinear</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>96</v>
       </c>
       <c r="D48">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="E48">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2390,33 +2433,33 @@
         <v>19</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_96_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_192_FedRevIN_RLinear</v>
       </c>
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_192_Centralized_RLinear</v>
+        <v>ETDatasetMinute_96_336_FedRevIN_RLinear</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>96</v>
       </c>
       <c r="D49">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="E49">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2431,33 +2474,33 @@
         <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_192_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_336_FedRevIN_RLinear</v>
       </c>
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_336_Centralized_RLinear</v>
+        <v>ETDatasetMinute_96_720_FedRevIN_RLinear</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>96</v>
       </c>
       <c r="D50">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2472,33 +2515,33 @@
         <v>19</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_336_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=ETDatasetMinute_96_720_FedRevIN_RLinear</v>
       </c>
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_720_Centralized_RLinear</v>
+        <v>ETDatasetMinute_96_96_FedALA_RLinear</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>96</v>
       </c>
       <c r="D51">
-        <v>720</v>
+        <v>96</v>
       </c>
       <c r="E51">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2513,33 +2556,33 @@
         <v>19</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_720_Centralized_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetMinute_96_96_FedALA_RLinear</v>
       </c>
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_96_FedAvg_RLinear</v>
+        <v>ETDatasetMinute_96_192_FedALA_RLinear</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>96</v>
       </c>
       <c r="D52">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="E52">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2554,33 +2597,33 @@
         <v>19</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_96_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetMinute_96_192_FedALA_RLinear</v>
       </c>
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_192_FedAvg_RLinear</v>
+        <v>ETDatasetMinute_96_336_FedALA_RLinear</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>96</v>
       </c>
       <c r="D53">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="E53">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2595,33 +2638,33 @@
         <v>19</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_192_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetMinute_96_336_FedALA_RLinear</v>
       </c>
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_336_FedAvg_RLinear</v>
+        <v>ETDatasetMinute_96_720_FedALA_RLinear</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>96</v>
       </c>
       <c r="D54">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="E54">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2636,33 +2679,33 @@
         <v>19</v>
       </c>
       <c r="J54" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_336_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=ETDatasetMinute_96_720_FedALA_RLinear</v>
       </c>
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_720_FedAvg_RLinear</v>
+        <v>ETDatasetMinute_96_96_FedCAC_RLinear</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>96</v>
       </c>
       <c r="D55">
-        <v>720</v>
+        <v>96</v>
       </c>
       <c r="E55">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2677,33 +2720,33 @@
         <v>19</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_720_FedAvg_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetMinute_96_96_FedCAC_RLinear</v>
       </c>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_96_FedProx_RLinear</v>
+        <v>ETDatasetMinute_96_192_FedCAC_RLinear</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>96</v>
       </c>
       <c r="D56">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="E56">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2718,33 +2761,33 @@
         <v>19</v>
       </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_96_FedProx_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetMinute_96_192_FedCAC_RLinear</v>
       </c>
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_192_FedProx_RLinear</v>
+        <v>ETDatasetMinute_96_336_FedCAC_RLinear</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>96</v>
       </c>
       <c r="D57">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="E57">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2759,33 +2802,33 @@
         <v>19</v>
       </c>
       <c r="J57" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_192_FedProx_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetMinute_96_336_FedCAC_RLinear</v>
       </c>
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_336_FedProx_RLinear</v>
+        <v>ETDatasetMinute_96_720_FedCAC_RLinear</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>96</v>
       </c>
       <c r="D58">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="E58">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2800,62 +2843,25 @@
         <v>19</v>
       </c>
       <c r="J58" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_336_FedProx_RLinear</v>
+        <v>python main.py --dataset=ETDatasetMinute --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=ETDatasetMinute_96_720_FedCAC_RLinear</v>
       </c>
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_720_FedProx_RLinear</v>
-      </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59">
-        <v>96</v>
-      </c>
-      <c r="D59">
-        <v>720</v>
-      </c>
-      <c r="E59">
-        <v>1000</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_720_FedProx_RLinear</v>
-      </c>
+      <c r="K59" s="1"/>
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_96_FedRevIN_RLinear</v>
+        <f t="shared" ref="A60:A87" si="14">CONCATENATE(B60, "_", C60, "_", D60, "_", J60, "_", I60)</f>
+        <v>CryptoDataDownloadDay_96_96_LocalOnly_RLinear</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -2867,7 +2873,7 @@
         <v>96</v>
       </c>
       <c r="E60">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2882,21 +2888,21 @@
         <v>19</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_96_FedRevIN_RLinear</v>
+        <f t="shared" ref="L60:L87" si="15">CONCATENATE("python main.py ", $B$1, B60, " ", $C$1, C60, " ", $D$1, D60, " ", $E$1, E60, " ", $F$1, F60, " ", $G$1, G60, " ", $H$1, H60, " ", $I$1, I60, " ", $J$1, J60, " ", K60, " ", $A$1, A60)</f>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_96_LocalOnly_RLinear</v>
       </c>
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_192_FedRevIN_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_192_LocalOnly_RLinear</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -2908,7 +2914,7 @@
         <v>192</v>
       </c>
       <c r="E61">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2923,21 +2929,21 @@
         <v>19</v>
       </c>
       <c r="J61" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_192_FedRevIN_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_192_LocalOnly_RLinear</v>
       </c>
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_336_FedRevIN_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_336_LocalOnly_RLinear</v>
       </c>
       <c r="B62" t="s">
         <v>22</v>
@@ -2949,7 +2955,7 @@
         <v>336</v>
       </c>
       <c r="E62">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2964,21 +2970,21 @@
         <v>19</v>
       </c>
       <c r="J62" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_336_FedRevIN_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_336_LocalOnly_RLinear</v>
       </c>
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f t="shared" si="12"/>
-        <v>CryptoDataDownloadDay_96_720_FedRevIN_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_720_LocalOnly_RLinear</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
@@ -2990,7 +2996,7 @@
         <v>720</v>
       </c>
       <c r="E63">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -3005,37 +3011,74 @@
         <v>19</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="13"/>
-        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_720_FedRevIN_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=CryptoDataDownloadDay_96_720_LocalOnly_RLinear</v>
       </c>
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="K64" s="1"/>
+      <c r="A64" t="str">
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_96_Centralized_RLinear</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <v>96</v>
+      </c>
+      <c r="E64">
+        <v>500</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_96_Centralized_RLinear</v>
+      </c>
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f t="shared" ref="A65:A68" si="14">CONCATENATE(B65, "_", C65, "_", D65, "_", J65, "_", I65)</f>
-        <v>BejingAirQuality_24_24_LocalOnly_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_192_Centralized_RLinear</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E65">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3050,33 +3093,33 @@
         <v>19</v>
       </c>
       <c r="J65" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" ref="L65:L68" si="15">CONCATENATE("python main.py ", $B$1, B65, " ", $C$1, C65, " ", $D$1, D65, " ", $E$1, E65, " ", $F$1, F65, " ", $G$1, G65, " ", $H$1, H65, " ", $I$1, I65, " ", $J$1, J65, " ", K65, " ", $A$1, A65)</f>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_24_LocalOnly_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_192_Centralized_RLinear</v>
       </c>
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="14"/>
-        <v>BejingAirQuality_24_48_LocalOnly_RLinear</v>
+        <v>CryptoDataDownloadDay_96_336_Centralized_RLinear</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C66">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D66">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="E66">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3091,33 +3134,33 @@
         <v>19</v>
       </c>
       <c r="J66" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="15"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_48_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_336_Centralized_RLinear</v>
       </c>
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="14"/>
-        <v>BejingAirQuality_24_72_LocalOnly_RLinear</v>
+        <v>CryptoDataDownloadDay_96_720_Centralized_RLinear</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D67">
-        <v>72</v>
+        <v>720</v>
       </c>
       <c r="E67">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3132,33 +3175,33 @@
         <v>19</v>
       </c>
       <c r="J67" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="15"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_72_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=CryptoDataDownloadDay_96_720_Centralized_RLinear</v>
       </c>
       <c r="N67" s="2"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="14"/>
-        <v>BejingAirQuality_24_96_LocalOnly_RLinear</v>
+        <v>CryptoDataDownloadDay_96_96_FedAvg_RLinear</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D68">
         <v>96</v>
       </c>
       <c r="E68">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3173,33 +3216,33 @@
         <v>19</v>
       </c>
       <c r="J68" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="15"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_96_LocalOnly_RLinear</v>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_96_FedAvg_RLinear</v>
       </c>
       <c r="N68" s="2"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f t="shared" ref="A69:A72" si="16">CONCATENATE(B69, "_", C69, "_", D69, "_", J69, "_", I69)</f>
-        <v>BejingAirQuality_24_24_Centralized_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_192_FedAvg_RLinear</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E69">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3214,33 +3257,33 @@
         <v>19</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" ref="L69:L72" si="17">CONCATENATE("python main.py ", $B$1, B69, " ", $C$1, C69, " ", $D$1, D69, " ", $E$1, E69, " ", $F$1, F69, " ", $G$1, G69, " ", $H$1, H69, " ", $I$1, I69, " ", $J$1, J69, " ", K69, " ", $A$1, A69)</f>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_24_Centralized_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_192_FedAvg_RLinear</v>
       </c>
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f t="shared" si="16"/>
-        <v>BejingAirQuality_24_48_Centralized_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_336_FedAvg_RLinear</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D70">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="E70">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3255,33 +3298,33 @@
         <v>19</v>
       </c>
       <c r="J70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="17"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_48_Centralized_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_336_FedAvg_RLinear</v>
       </c>
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f t="shared" si="16"/>
-        <v>BejingAirQuality_24_72_Centralized_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_720_FedAvg_RLinear</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D71">
-        <v>72</v>
+        <v>720</v>
       </c>
       <c r="E71">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3296,33 +3339,33 @@
         <v>19</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="17"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_72_Centralized_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=CryptoDataDownloadDay_96_720_FedAvg_RLinear</v>
       </c>
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f t="shared" si="16"/>
-        <v>BejingAirQuality_24_96_Centralized_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_96_FedProx_RLinear</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D72">
         <v>96</v>
       </c>
       <c r="E72">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3337,33 +3380,33 @@
         <v>19</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="17"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_96_Centralized_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_96_FedProx_RLinear</v>
       </c>
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f t="shared" ref="A73:A80" si="18">CONCATENATE(B73, "_", C73, "_", D73, "_", J73, "_", I73)</f>
-        <v>BejingAirQuality_24_24_FedAvg_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_192_FedProx_RLinear</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D73">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E73">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3378,33 +3421,33 @@
         <v>19</v>
       </c>
       <c r="J73" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" ref="L73:L80" si="19">CONCATENATE("python main.py ", $B$1, B73, " ", $C$1, C73, " ", $D$1, D73, " ", $E$1, E73, " ", $F$1, F73, " ", $G$1, G73, " ", $H$1, H73, " ", $I$1, I73, " ", $J$1, J73, " ", K73, " ", $A$1, A73)</f>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_24_FedAvg_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_192_FedProx_RLinear</v>
       </c>
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f t="shared" si="18"/>
-        <v>BejingAirQuality_24_48_FedAvg_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_336_FedProx_RLinear</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C74">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D74">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="E74">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3419,33 +3462,33 @@
         <v>19</v>
       </c>
       <c r="J74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="19"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_48_FedAvg_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_336_FedProx_RLinear</v>
       </c>
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f t="shared" si="18"/>
-        <v>BejingAirQuality_24_72_FedAvg_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_720_FedProx_RLinear</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D75">
-        <v>72</v>
+        <v>720</v>
       </c>
       <c r="E75">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3460,33 +3503,33 @@
         <v>19</v>
       </c>
       <c r="J75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="19"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_72_FedAvg_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=CryptoDataDownloadDay_96_720_FedProx_RLinear</v>
       </c>
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f t="shared" si="18"/>
-        <v>BejingAirQuality_24_96_FedAvg_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_96_FedRevIN_RLinear</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D76">
         <v>96</v>
       </c>
       <c r="E76">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3501,33 +3544,33 @@
         <v>19</v>
       </c>
       <c r="J76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="19"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_96_FedAvg_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_96_FedRevIN_RLinear</v>
       </c>
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f t="shared" si="18"/>
-        <v>BejingAirQuality_24_24_FedProx_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_192_FedRevIN_RLinear</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C77">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D77">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E77">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3542,33 +3585,33 @@
         <v>19</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="19"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_24_FedProx_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_192_FedRevIN_RLinear</v>
       </c>
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f t="shared" si="18"/>
-        <v>BejingAirQuality_24_48_FedProx_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_336_FedRevIN_RLinear</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D78">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="E78">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3583,33 +3626,33 @@
         <v>19</v>
       </c>
       <c r="J78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="19"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_48_FedProx_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_336_FedRevIN_RLinear</v>
       </c>
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f t="shared" si="18"/>
-        <v>BejingAirQuality_24_72_FedProx_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_720_FedRevIN_RLinear</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C79">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D79">
-        <v>72</v>
+        <v>720</v>
       </c>
       <c r="E79">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3624,221 +3667,1496 @@
         <v>19</v>
       </c>
       <c r="J79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="19"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_72_FedProx_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=CryptoDataDownloadDay_96_720_FedRevIN_RLinear</v>
       </c>
       <c r="N79" s="2"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f t="shared" si="18"/>
-        <v>BejingAirQuality_24_96_FedProx_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_96_FedALA_RLinear</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C80">
+        <v>96</v>
+      </c>
+      <c r="D80">
+        <v>96</v>
+      </c>
+      <c r="E80">
+        <v>500</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s">
         <v>24</v>
       </c>
-      <c r="D80">
-        <v>96</v>
-      </c>
-      <c r="E80">
-        <v>1000</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" t="s">
-        <v>16</v>
-      </c>
       <c r="K80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="19"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_96_FedProx_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=CryptoDataDownloadDay_96_96_FedALA_RLinear</v>
       </c>
       <c r="N80" s="2"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f t="shared" ref="A81:A84" si="20">CONCATENATE(B81, "_", C81, "_", D81, "_", J81, "_", I81)</f>
-        <v>BejingAirQuality_24_24_FedRevIN_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_192_FedALA_RLinear</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C81">
+        <v>96</v>
+      </c>
+      <c r="D81">
+        <v>192</v>
+      </c>
+      <c r="E81">
+        <v>500</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" t="s">
         <v>24</v>
       </c>
-      <c r="D81">
-        <v>24</v>
-      </c>
-      <c r="E81">
-        <v>1000</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>19</v>
-      </c>
-      <c r="J81" t="s">
-        <v>13</v>
-      </c>
       <c r="K81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" ref="L81:L84" si="21">CONCATENATE("python main.py ", $B$1, B81, " ", $C$1, C81, " ", $D$1, D81, " ", $E$1, E81, " ", $F$1, F81, " ", $G$1, G81, " ", $H$1, H81, " ", $I$1, I81, " ", $J$1, J81, " ", K81, " ", $A$1, A81)</f>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_24_FedRevIN_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=CryptoDataDownloadDay_96_192_FedALA_RLinear</v>
       </c>
       <c r="N81" s="2"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f t="shared" si="20"/>
-        <v>BejingAirQuality_24_48_FedRevIN_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_336_FedALA_RLinear</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C82">
+        <v>96</v>
+      </c>
+      <c r="D82">
+        <v>336</v>
+      </c>
+      <c r="E82">
+        <v>500</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" t="s">
         <v>24</v>
       </c>
-      <c r="D82">
-        <v>48</v>
-      </c>
-      <c r="E82">
-        <v>1000</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>19</v>
-      </c>
-      <c r="J82" t="s">
-        <v>13</v>
-      </c>
       <c r="K82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="21"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_48_FedRevIN_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=CryptoDataDownloadDay_96_336_FedALA_RLinear</v>
       </c>
       <c r="N82" s="2"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f t="shared" si="20"/>
-        <v>BejingAirQuality_24_72_FedRevIN_RLinear</v>
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_720_FedALA_RLinear</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C83">
+        <v>96</v>
+      </c>
+      <c r="D83">
+        <v>720</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s">
         <v>24</v>
       </c>
-      <c r="D83">
-        <v>72</v>
-      </c>
-      <c r="E83">
-        <v>1000</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" t="s">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>19</v>
-      </c>
-      <c r="J83" t="s">
-        <v>13</v>
-      </c>
       <c r="K83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="21"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_72_FedRevIN_RLinear</v>
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=CryptoDataDownloadDay_96_720_FedALA_RLinear</v>
       </c>
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_96_FedCAC_RLinear</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>96</v>
+      </c>
+      <c r="D84">
+        <v>96</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=CryptoDataDownloadDay_96_96_FedCAC_RLinear</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_192_FedCAC_RLinear</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>96</v>
+      </c>
+      <c r="D85">
+        <v>192</v>
+      </c>
+      <c r="E85">
+        <v>500</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=CryptoDataDownloadDay_96_192_FedCAC_RLinear</v>
+      </c>
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_336_FedCAC_RLinear</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>96</v>
+      </c>
+      <c r="D86">
+        <v>336</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=CryptoDataDownloadDay_96_336_FedCAC_RLinear</v>
+      </c>
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="14"/>
+        <v>CryptoDataDownloadDay_96_720_FedCAC_RLinear</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>96</v>
+      </c>
+      <c r="D87">
+        <v>720</v>
+      </c>
+      <c r="E87">
+        <v>500</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="15"/>
+        <v>python main.py --dataset=CryptoDataDownloadDay --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=CryptoDataDownloadDay_96_720_FedCAC_RLinear</v>
+      </c>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" ref="A89:A92" si="16">CONCATENATE(B89, "_", C89, "_", D89, "_", J89, "_", I89)</f>
+        <v>BejingAirQuality_24_24_LocalOnly_RLinear</v>
+      </c>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>24</v>
+      </c>
+      <c r="D89">
+        <v>24</v>
+      </c>
+      <c r="E89">
+        <v>500</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" ref="L89:L92" si="17">CONCATENATE("python main.py ", $B$1, B89, " ", $C$1, C89, " ", $D$1, D89, " ", $E$1, E89, " ", $F$1, F89, " ", $G$1, G89, " ", $H$1, H89, " ", $I$1, I89, " ", $J$1, J89, " ", K89, " ", $A$1, A89)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_24_LocalOnly_RLinear</v>
+      </c>
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="16"/>
+        <v>BejingAirQuality_24_48_LocalOnly_RLinear</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+      <c r="D90">
+        <v>48</v>
+      </c>
+      <c r="E90">
+        <v>500</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="17"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_48_LocalOnly_RLinear</v>
+      </c>
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="16"/>
+        <v>BejingAirQuality_24_72_LocalOnly_RLinear</v>
+      </c>
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>72</v>
+      </c>
+      <c r="E91">
+        <v>500</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="17"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_72_LocalOnly_RLinear</v>
+      </c>
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="16"/>
+        <v>BejingAirQuality_24_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>24</v>
+      </c>
+      <c r="D92">
+        <v>96</v>
+      </c>
+      <c r="E92">
+        <v>500</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="17"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=LocalOnly --times=5 --name=BejingAirQuality_24_96_LocalOnly_RLinear</v>
+      </c>
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" ref="A93:A96" si="18">CONCATENATE(B93, "_", C93, "_", D93, "_", J93, "_", I93)</f>
+        <v>BejingAirQuality_24_24_Centralized_RLinear</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>24</v>
+      </c>
+      <c r="E93">
+        <v>500</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" ref="L93:L96" si="19">CONCATENATE("python main.py ", $B$1, B93, " ", $C$1, C93, " ", $D$1, D93, " ", $E$1, E93, " ", $F$1, F93, " ", $G$1, G93, " ", $H$1, H93, " ", $I$1, I93, " ", $J$1, J93, " ", K93, " ", $A$1, A93)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_24_Centralized_RLinear</v>
+      </c>
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_48_Centralized_RLinear</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>48</v>
+      </c>
+      <c r="E94">
+        <v>500</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_48_Centralized_RLinear</v>
+      </c>
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_72_Centralized_RLinear</v>
+      </c>
+      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95">
+        <v>72</v>
+      </c>
+      <c r="E95">
+        <v>500</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_72_Centralized_RLinear</v>
+      </c>
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="18"/>
+        <v>BejingAirQuality_24_96_Centralized_RLinear</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96">
+        <v>24</v>
+      </c>
+      <c r="D96">
+        <v>96</v>
+      </c>
+      <c r="E96">
+        <v>500</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="19"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=Centralized --times=5 --name=BejingAirQuality_24_96_Centralized_RLinear</v>
+      </c>
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" ref="A97:A104" si="20">CONCATENATE(B97, "_", C97, "_", D97, "_", J97, "_", I97)</f>
+        <v>BejingAirQuality_24_24_FedAvg_RLinear</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>500</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" ref="L97:L104" si="21">CONCATENATE("python main.py ", $B$1, B97, " ", $C$1, C97, " ", $D$1, D97, " ", $E$1, E97, " ", $F$1, F97, " ", $G$1, G97, " ", $H$1, H97, " ", $I$1, I97, " ", $J$1, J97, " ", K97, " ", $A$1, A97)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_24_FedAvg_RLinear</v>
+      </c>
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
         <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_48_FedAvg_RLinear</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98">
+        <v>24</v>
+      </c>
+      <c r="D98">
+        <v>48</v>
+      </c>
+      <c r="E98">
+        <v>500</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_48_FedAvg_RLinear</v>
+      </c>
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_72_FedAvg_RLinear</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>24</v>
+      </c>
+      <c r="D99">
+        <v>72</v>
+      </c>
+      <c r="E99">
+        <v>500</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_72_FedAvg_RLinear</v>
+      </c>
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_96_FedAvg_RLinear</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100">
+        <v>24</v>
+      </c>
+      <c r="D100">
+        <v>96</v>
+      </c>
+      <c r="E100">
+        <v>500</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedAvg --times=5 --name=BejingAirQuality_24_96_FedAvg_RLinear</v>
+      </c>
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_24_FedProx_RLinear</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>24</v>
+      </c>
+      <c r="D101">
+        <v>24</v>
+      </c>
+      <c r="E101">
+        <v>500</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_24_FedProx_RLinear</v>
+      </c>
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_48_FedProx_RLinear</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>24</v>
+      </c>
+      <c r="D102">
+        <v>48</v>
+      </c>
+      <c r="E102">
+        <v>500</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_48_FedProx_RLinear</v>
+      </c>
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_72_FedProx_RLinear</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>24</v>
+      </c>
+      <c r="D103">
+        <v>72</v>
+      </c>
+      <c r="E103">
+        <v>500</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_72_FedProx_RLinear</v>
+      </c>
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="20"/>
+        <v>BejingAirQuality_24_96_FedProx_RLinear</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <v>24</v>
+      </c>
+      <c r="D104">
+        <v>96</v>
+      </c>
+      <c r="E104">
+        <v>500</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedProx --times=5 --name=BejingAirQuality_24_96_FedProx_RLinear</v>
+      </c>
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" ref="A105:A116" si="22">CONCATENATE(B105, "_", C105, "_", D105, "_", J105, "_", I105)</f>
+        <v>BejingAirQuality_24_24_FedRevIN_RLinear</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105">
+        <v>24</v>
+      </c>
+      <c r="D105">
+        <v>24</v>
+      </c>
+      <c r="E105">
+        <v>500</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" ref="L105:L116" si="23">CONCATENATE("python main.py ", $B$1, B105, " ", $C$1, C105, " ", $D$1, D105, " ", $E$1, E105, " ", $F$1, F105, " ", $G$1, G105, " ", $H$1, H105, " ", $I$1, I105, " ", $J$1, J105, " ", K105, " ", $A$1, A105)</f>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_24_FedRevIN_RLinear</v>
+      </c>
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_24_48_FedRevIN_RLinear</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>48</v>
+      </c>
+      <c r="E106">
+        <v>500</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_48_FedRevIN_RLinear</v>
+      </c>
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_24_72_FedRevIN_RLinear</v>
+      </c>
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>24</v>
+      </c>
+      <c r="D107">
+        <v>72</v>
+      </c>
+      <c r="E107">
+        <v>500</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_72_FedRevIN_RLinear</v>
+      </c>
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="22"/>
         <v>BejingAirQuality_24_96_FedRevIN_RLinear</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B108" t="s">
         <v>20</v>
       </c>
-      <c r="C84">
+      <c r="C108">
         <v>24</v>
       </c>
-      <c r="D84">
-        <v>96</v>
-      </c>
-      <c r="E84">
-        <v>1000</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="D108">
+        <v>96</v>
+      </c>
+      <c r="E108">
+        <v>500</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" t="s">
         <v>13</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L84" t="str">
-        <f t="shared" si="21"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=1000 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_96_FedRevIN_RLinear</v>
-      </c>
-      <c r="N84" s="2"/>
+      <c r="K108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedRevIN --times=5 --name=BejingAirQuality_24_96_FedRevIN_RLinear</v>
+      </c>
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_96_FedALA_RLinear</v>
+      </c>
+      <c r="B109" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <v>96</v>
+      </c>
+      <c r="D109">
+        <v>96</v>
+      </c>
+      <c r="E109">
+        <v>500</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" t="s">
+        <v>24</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_96_FedALA_RLinear</v>
+      </c>
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_192_FedALA_RLinear</v>
+      </c>
+      <c r="B110" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110">
+        <v>96</v>
+      </c>
+      <c r="D110">
+        <v>192</v>
+      </c>
+      <c r="E110">
+        <v>500</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_192_FedALA_RLinear</v>
+      </c>
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_336_FedALA_RLinear</v>
+      </c>
+      <c r="B111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>96</v>
+      </c>
+      <c r="D111">
+        <v>336</v>
+      </c>
+      <c r="E111">
+        <v>500</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_336_FedALA_RLinear</v>
+      </c>
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_720_FedALA_RLinear</v>
+      </c>
+      <c r="B112" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>96</v>
+      </c>
+      <c r="D112">
+        <v>720</v>
+      </c>
+      <c r="E112">
+        <v>500</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_720_FedALA_RLinear</v>
+      </c>
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_96_FedCAC_RLinear</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>96</v>
+      </c>
+      <c r="D113">
+        <v>96</v>
+      </c>
+      <c r="E113">
+        <v>500</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_96_FedCAC_RLinear</v>
+      </c>
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_192_FedCAC_RLinear</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>96</v>
+      </c>
+      <c r="D114">
+        <v>192</v>
+      </c>
+      <c r="E114">
+        <v>500</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" t="s">
+        <v>25</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_192_FedCAC_RLinear</v>
+      </c>
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_336_FedCAC_RLinear</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115">
+        <v>96</v>
+      </c>
+      <c r="D115">
+        <v>336</v>
+      </c>
+      <c r="E115">
+        <v>500</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" t="s">
+        <v>25</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_336_FedCAC_RLinear</v>
+      </c>
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="22"/>
+        <v>BejingAirQuality_96_720_FedCAC_RLinear</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>96</v>
+      </c>
+      <c r="D116">
+        <v>720</v>
+      </c>
+      <c r="E116">
+        <v>500</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" t="s">
+        <v>25</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="23"/>
+        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_720_FedCAC_RLinear</v>
+      </c>
+      <c r="N116" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts.xlsx
+++ b/scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Code\FedProC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD28AA-6196-49F7-85DB-F51CF1BB9094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF5DB4-2107-43A0-AF1F-119AA87FAE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4676614C-C8DD-4D38-BD66-2E739B6203C6}"/>
+    <workbookView xWindow="5190" yWindow="2145" windowWidth="21600" windowHeight="10890" xr2:uid="{4676614C-C8DD-4D38-BD66-2E739B6203C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8F8CC3-6A9E-45FD-B534-488B8E56A491}">
   <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4833,16 +4833,16 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_96_FedALA_RLinear</v>
+        <v>BejingAirQuality_24_24_FedALA_RLinear</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
       </c>
       <c r="C109">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D109">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E109">
         <v>500</v>
@@ -4867,23 +4867,23 @@
       </c>
       <c r="L109" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_96_FedALA_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_24_24_FedALA_RLinear</v>
       </c>
       <c r="N109" s="2"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_192_FedALA_RLinear</v>
+        <v>BejingAirQuality_24_48_FedALA_RLinear</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
       </c>
       <c r="C110">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D110">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="E110">
         <v>500</v>
@@ -4908,23 +4908,23 @@
       </c>
       <c r="L110" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_192_FedALA_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_24_48_FedALA_RLinear</v>
       </c>
       <c r="N110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_336_FedALA_RLinear</v>
+        <v>BejingAirQuality_24_72_FedALA_RLinear</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
       </c>
       <c r="C111">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D111">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="E111">
         <v>500</v>
@@ -4949,23 +4949,23 @@
       </c>
       <c r="L111" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_336_FedALA_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_24_72_FedALA_RLinear</v>
       </c>
       <c r="N111" s="2"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_720_FedALA_RLinear</v>
+        <v>BejingAirQuality_24_96_FedALA_RLinear</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
       </c>
       <c r="C112">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D112">
-        <v>720</v>
+        <v>96</v>
       </c>
       <c r="E112">
         <v>500</v>
@@ -4990,23 +4990,23 @@
       </c>
       <c r="L112" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_96_720_FedALA_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedALA --times=5 --name=BejingAirQuality_24_96_FedALA_RLinear</v>
       </c>
       <c r="N112" s="2"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_96_FedCAC_RLinear</v>
+        <v>BejingAirQuality_24_24_FedCAC_RLinear</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D113">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E113">
         <v>500</v>
@@ -5031,23 +5031,23 @@
       </c>
       <c r="L113" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_96_FedCAC_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=24 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_24_24_FedCAC_RLinear</v>
       </c>
       <c r="N113" s="2"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_192_FedCAC_RLinear</v>
+        <v>BejingAirQuality_24_48_FedCAC_RLinear</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
       <c r="C114">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D114">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="E114">
         <v>500</v>
@@ -5072,23 +5072,23 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=192 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_192_FedCAC_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=48 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_24_48_FedCAC_RLinear</v>
       </c>
       <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_336_FedCAC_RLinear</v>
+        <v>BejingAirQuality_24_72_FedCAC_RLinear</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
       </c>
       <c r="C115">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D115">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="E115">
         <v>500</v>
@@ -5113,23 +5113,23 @@
       </c>
       <c r="L115" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=336 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_336_FedCAC_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=72 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_24_72_FedCAC_RLinear</v>
       </c>
       <c r="N115" s="2"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="22"/>
-        <v>BejingAirQuality_96_720_FedCAC_RLinear</v>
+        <v>BejingAirQuality_24_96_FedCAC_RLinear</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
       </c>
       <c r="C116">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D116">
-        <v>720</v>
+        <v>96</v>
       </c>
       <c r="E116">
         <v>500</v>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="L116" t="str">
         <f t="shared" si="23"/>
-        <v>python main.py --dataset=BejingAirQuality --input_len=96 --output_len=720 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_96_720_FedCAC_RLinear</v>
+        <v>python main.py --dataset=BejingAirQuality --input_len=24 --output_len=96 --iterations=500 --epochs=1 --scaler=StandardScaler --loss=MSE --model=RLinear --strategy=FedCAC --times=5 --name=BejingAirQuality_24_96_FedCAC_RLinear</v>
       </c>
       <c r="N116" s="2"/>
     </row>
